--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -451,855 +451,1153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>000974</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>安信消费医药主题股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>002598</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>平安消费精选混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>002599</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>平安消费精选混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>81.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华高端制造业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>48.32</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1628,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>360001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>光大保德信量化股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>24.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>257030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>国联安优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>519039</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>长盛同德主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>360007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>光大保德信优势配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>160813</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004729</t>
+          <t>009800</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧瑾泰灵活配置混合C</t>
+          <t>长盛制造精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>005063</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>广发中证全指家用电器指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009800</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛制造精选混合A</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009801</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长盛制造精选混合C</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>000823</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>银华高端制造业灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>257030</t>
+          <t>673010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国联安优势混合</t>
+          <t>西部利得新动向混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1724,15 +2162,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>82.63</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010156</t>
+          <t>005064</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长盛核心成长混合C</t>
+          <t>广发中证全指家用电器指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>360001</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大保德信量化股票</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>360007</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>光大保德信优势配置混合</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000823</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>银华高端制造业灵活配置混合</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>69.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>501069</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1948,15 +2466,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>34.36</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519039</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长盛同德主题混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>009801</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>长盛制造精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>160813</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>673010</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>西部利得新动向混合</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>010156</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>长盛核心成长混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2228,15 +2846,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>89.23</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>004727</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>先锋聚优灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>004729</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>中欧瑾泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3023,4 +3024,2454 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6517</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5474,4 +5475,1960 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7431,4 +7432,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7440,7 +7441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7451,17 +7452,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7471,14 +7492,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.37</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7487,14 +7530,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.93</v>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7503,14 +7568,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.59</v>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7519,13 +7606,2543 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10041,7 +10042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10052,17 +10053,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10072,14 +10093,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.2</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10088,14 +10131,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.37</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10104,14 +10169,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.93</v>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -10120,14 +10207,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.59</v>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -10136,13 +10245,2217 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12338,7 +12339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12349,17 +12350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12369,14 +12390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.57</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -12385,14 +12428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.2</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12401,14 +12466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.37</v>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12417,14 +12504,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.93</v>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -12433,14 +12542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.59</v>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -12449,13 +12580,2229 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>9.76</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>6.37</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>9.93</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>4.59</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -600,6 +617,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2929,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5225,7 +6628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7825,7 +9228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9781,7 +11184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12231,7 +13634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13655,7 +15058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002508-老板电器.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>9.76</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>7.57</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>6.37</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>9.93</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>4.59</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1186 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1790,2454 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +5623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4332,7 +7953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6628,7 +10249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9228,7 +12849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11184,7 +14805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13634,7 +17255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15056,1160 +18677,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5829</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3689</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000974</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信消费医药主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3510</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2216</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2063</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2041</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1631</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华高端制造业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1564</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0934</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>48.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>